--- a/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -30,16 +30,19 @@
     <x:t>With values</x:t>
   </x:si>
   <x:si>
-    <x:t>Rendered Nullable EnumValue2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rendered Nullable Nested Value</x:t>
+    <x:t>Rendered EnumValue2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rendered Nested Value</x:t>
   </x:si>
   <x:si>
     <x:t>With nulls</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Rendered Nullable </x:t>
+    <x:t>Rendered Nullable AnEnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rendered Nullable Nested</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,8 +406,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="13.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="27.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
@@ -437,7 +440,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -410,7 +410,7 @@
     <x:col min="3" max="3" width="26.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -421,7 +421,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" ht="14.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -432,7 +432,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:3" ht="14.25" customHeight="1">
       <x:c r="A3" s="1" t="s">
         <x:v>6</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -405,9 +405,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="27.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="14.25" customHeight="1">
